--- a/DataUpload/Seed Data/attributecheck.xlsx
+++ b/DataUpload/Seed Data/attributecheck.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>Distributor Name</t>
   </si>
@@ -762,7 +762,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,9 +891,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
